--- a/luke/dioecy/Dioecy_Models.xlsx
+++ b/luke/dioecy/Dioecy_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/luke/dioecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B01453-B624-4847-B8CC-5F8C5CA2A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208B8CF-DF2D-7C4C-A23D-8C1FEB57DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="29380" windowHeight="19920" xr2:uid="{4485375F-066D-4535-BD31-1030097C60D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="68">
   <si>
     <t>L= lowland</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Both ways Altitudinal Dependent (6 params)</t>
   </si>
   <si>
-    <t>Null: Symmetric Independent (3 params)</t>
-  </si>
-  <si>
     <r>
       <t>t</t>
     </r>
@@ -809,7 +806,1710 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 1.0</t>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asymmetric independent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Symmetric altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = base transition rate from H (hermaphroditic/monoecious) to D (dioecious)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = base transition rate from D (dioecious) to H (hermaphroditic/monoecious) </t>
+    </r>
+  </si>
+  <si>
+    <t>nparams</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hermaphroditic-&gt;Dioecious  altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dioecious-&gt;Hermaphroditic altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both ways altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hermaphroditic-&gt;Dioecious  altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (5 free parameters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both ways altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (6 free parameters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dioecious-&gt;Hermaphroditic altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (5 free parameters)</t>
     </r>
   </si>
   <si>
@@ -818,6 +2518,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -829,6 +2530,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -838,6 +2540,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -848,6 +2551,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -859,6 +2563,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -868,6 +2573,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -878,6 +2584,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -889,6 +2596,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -898,6 +2606,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -908,6 +2617,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -919,6 +2629,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -928,6 +2639,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -938,6 +2650,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -949,6 +2662,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -958,6 +2672,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -968,6 +2683,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -979,6 +2695,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -986,6 +2703,220 @@
       </rPr>
       <t>21</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3 free parameters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Symmetric altitude-dependent: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.0; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4 free parameters)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -993,6 +2924,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1004,6 +2936,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1013,6 +2946,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1023,6 +2957,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1034,6 +2969,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1043,6 +2979,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1053,6 +2990,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1064,6 +3002,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1073,6 +3012,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1083,6 +3023,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1094,6 +3035,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1103,6 +3045,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1113,6 +3056,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1124,6 +3068,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1133,6 +3078,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1143,6 +3089,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1154,6 +3101,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1161,605 +3109,51 @@
       </rPr>
       <t>21</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Symmetric altitude-dependent: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.0; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = base transition rate from H (hermaphroditic/monoecious) to D (dioecious)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = base transition rate from D (dioecious) to H (hermaphroditic/monoecious) </t>
-    </r>
-  </si>
-  <si>
-    <t>nparams</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hermaphroditic-&gt;Dioecious  altitude-dependent: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.0; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.0; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hermaphroditic-&gt;Dioecious  altitude-dependent: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.0; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.0; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>21</t>
-    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (4 free parameters)</t>
+    </r>
+  </si>
+  <si>
+    <t>Julia format, Q matrix</t>
+  </si>
+  <si>
+    <t>anci</t>
+  </si>
+  <si>
+    <t>deci</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,6 +3184,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,7 +3255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1869,6 +3279,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2183,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D945A78-3379-4030-868C-31222BBE01C7}">
-  <dimension ref="B1:Z58"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3218,7 +4637,7 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
@@ -3244,7 +4663,7 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
@@ -3270,7 +4689,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
@@ -3296,7 +4715,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
@@ -3322,7 +4741,7 @@
     </row>
     <row r="26" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
@@ -3348,7 +4767,7 @@
     </row>
     <row r="27" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
@@ -3374,7 +4793,7 @@
     </row>
     <row r="28" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
@@ -3400,7 +4819,7 @@
     </row>
     <row r="29" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
@@ -3426,7 +4845,7 @@
     </row>
     <row r="30" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
@@ -3452,7 +4871,7 @@
     </row>
     <row r="31" spans="2:26" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
@@ -3484,7 +4903,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="1"/>
@@ -3501,9 +4920,12 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
@@ -3529,9 +4951,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
@@ -3557,1000 +4982,1431 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35">
+        <v>43</v>
+      </c>
+      <c r="J35" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="J36">
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="L41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="T41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+      <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="F42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J37">
+      <c r="Z44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D49" s="7"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="1"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="1"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="2:26" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="L50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="T50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+      <c r="E51" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D42" s="6" t="s">
+      <c r="F51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="4"/>
+      <c r="U51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="L42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="T42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D43" s="4"/>
-      <c r="E43" s="3" t="s">
+      <c r="I52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="M52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="E55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="3" t="s">
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>5</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="F64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
         <v>6</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="3" t="s">
+      <c r="F67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="D70">
         <v>5</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
         <v>6</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
         <v>5</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="4:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="L51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="T51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D52" s="4"/>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="4:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="4:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="4:26" ht="17" x14ac:dyDescent="0.25">
-      <c r="D58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>11</v>
+      <c r="F74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="T42:Z42"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="T51:Z51"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="T41:Z41"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="T50:Z50"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T4:Z4"/>

--- a/luke/dioecy/Dioecy_Models.xlsx
+++ b/luke/dioecy/Dioecy_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/luke/dioecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208B8CF-DF2D-7C4C-A23D-8C1FEB57DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6073E-574B-CC40-A2E9-9D8431866051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="500" windowWidth="29380" windowHeight="19920" xr2:uid="{4485375F-066D-4535-BD31-1030097C60D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="68">
   <si>
     <t>L= lowland</t>
   </si>
@@ -3602,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D945A78-3379-4030-868C-31222BBE01C7}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="O60" sqref="O60:AB67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5505,7 +5505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5528,7 +5528,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="2:26" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:28" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="9" t="s">
         <v>53</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
         <v>5</v>
@@ -5616,7 +5616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>5</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D55" s="5" t="s">
         <v>8</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>59</v>
       </c>
@@ -6034,8 +6034,53 @@
       <c r="K60" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="N60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>4</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="Z60">
+        <v>6</v>
+      </c>
+      <c r="AA60">
+        <v>6</v>
+      </c>
+      <c r="AB60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>1</v>
       </c>
@@ -6060,8 +6105,53 @@
       <c r="K61" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="N61" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>5</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>6</v>
+      </c>
+      <c r="X61">
+        <v>2</v>
+      </c>
+      <c r="Y61">
+        <v>6</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>4</v>
+      </c>
+      <c r="AB61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>1</v>
       </c>
@@ -6086,8 +6176,53 @@
       <c r="K62" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="N62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>2</v>
       </c>
@@ -6112,8 +6247,53 @@
       <c r="K63" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+      <c r="N63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>2</v>
       </c>
@@ -6138,8 +6318,53 @@
       <c r="K64" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="N64" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>3</v>
       </c>
@@ -6164,8 +6389,53 @@
       <c r="K65" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="N65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>3</v>
       </c>
@@ -6190,8 +6460,53 @@
       <c r="K66" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="N66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>3</v>
       </c>
@@ -6216,8 +6531,53 @@
       <c r="K67" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="N67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>4</v>
       </c>
@@ -6243,7 +6603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>4</v>
       </c>
@@ -6269,7 +6629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>5</v>
       </c>
@@ -6295,7 +6655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>5</v>
       </c>
@@ -6321,7 +6681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="4:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:28" ht="17" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>6</v>
       </c>
@@ -6347,7 +6707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>6</v>
       </c>
@@ -6373,7 +6733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>6</v>
       </c>

--- a/luke/dioecy/Dioecy_Models.xlsx
+++ b/luke/dioecy/Dioecy_Models.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/luke/dioecy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/PhyBEARS.jl/luke/dioecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6073E-574B-CC40-A2E9-9D8431866051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA59B1FC-ED38-4A45-B2D6-B4E1D80009F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="29380" windowHeight="19920" xr2:uid="{4485375F-066D-4535-BD31-1030097C60D8}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="29380" windowHeight="19920" xr2:uid="{4485375F-066D-4535-BD31-1030097C60D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3153,7 +3142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3272,21 +3261,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3604,11 +3593,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D945A78-3379-4030-868C-31222BBE01C7}">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60:AB67"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -3629,7 +3618,7 @@
     <col min="25" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:26">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -3653,39 +3642,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="T4" s="6" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="2:26">
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -3744,7 +3733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26">
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26">
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
@@ -3874,7 +3863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26">
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26">
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
@@ -4004,7 +3993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26">
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4069,7 +4058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26">
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4134,36 +4123,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D13" s="6" t="s">
+    <row r="13" spans="2:26">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="T13" s="6" t="s">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="T13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="2:26">
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -4222,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26">
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -4287,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26">
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
@@ -4352,7 +4341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26">
       <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
@@ -4417,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26">
       <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26">
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
@@ -4547,7 +4536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26">
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
@@ -4612,22 +4601,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
+    <row r="21" spans="2:26">
+      <c r="D21" s="6"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="7"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="2"/>
@@ -4635,25 +4624,25 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:26">
+      <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="7"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="2"/>
@@ -4661,25 +4650,25 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26">
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="7"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="2"/>
@@ -4687,25 +4676,25 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26">
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="7"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="2"/>
@@ -4713,25 +4702,25 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26">
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="7"/>
+      <c r="T25" s="6"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="2"/>
@@ -4739,25 +4728,25 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" ht="17">
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
-      <c r="T26" s="7"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="2"/>
@@ -4765,25 +4754,25 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" ht="17">
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
-      <c r="T27" s="7"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="2"/>
@@ -4791,25 +4780,25 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" ht="17">
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="1"/>
-      <c r="T28" s="7"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="2"/>
@@ -4817,25 +4806,25 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="17">
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
-      <c r="T29" s="7"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="2"/>
@@ -4843,25 +4832,25 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" ht="17">
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="L30" s="7"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="1"/>
-      <c r="T30" s="7"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="2"/>
@@ -4869,25 +4858,25 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="2:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" ht="17">
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
-      <c r="T31" s="7"/>
+      <c r="T31" s="6"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="2"/>
@@ -4895,8 +4884,8 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
+    <row r="32" spans="2:26">
+      <c r="D32" s="6"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
@@ -4905,14 +4894,14 @@
       <c r="J32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
-      <c r="T32" s="7"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="2"/>
@@ -4920,14 +4909,14 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="17">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
@@ -4936,14 +4925,14 @@
       <c r="J33" s="1">
         <v>3</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="1"/>
-      <c r="T33" s="7"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="2"/>
@@ -4951,14 +4940,14 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="17">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
@@ -4967,14 +4956,14 @@
       <c r="J34" s="1">
         <v>4</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="1"/>
-      <c r="T34" s="7"/>
+      <c r="T34" s="6"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="2"/>
@@ -4982,7 +4971,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="17">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4993,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="17">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -5004,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="17">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -5015,7 +5004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="17">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5026,37 +5015,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="9" t="s">
+    <row r="41" spans="1:26" ht="33" customHeight="1">
+      <c r="D41" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="L41" s="9" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="L41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="T41" s="9" t="s">
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="T41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="D42" s="4"/>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -5115,7 +5103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="17">
       <c r="D43" s="5" t="s">
         <v>5</v>
       </c>
@@ -5180,7 +5168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="17">
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
@@ -5245,7 +5233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="17">
       <c r="D45" s="5" t="s">
         <v>7</v>
       </c>
@@ -5310,7 +5298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="17">
       <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
@@ -5375,7 +5363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="17">
       <c r="D47" s="5" t="s">
         <v>9</v>
       </c>
@@ -5440,7 +5428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="17">
       <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
@@ -5505,22 +5493,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="D49" s="7"/>
+    <row r="49" spans="2:28">
+      <c r="D49" s="6"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
-      <c r="L49" s="7"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="1"/>
-      <c r="T49" s="7"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="2"/>
@@ -5528,36 +5516,36 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="2:28" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="9" t="s">
+    <row r="50" spans="2:28" ht="38" customHeight="1">
+      <c r="D50" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="L50" s="9" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="L50" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="T50" s="9" t="s">
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="T50" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+    </row>
+    <row r="51" spans="2:28">
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
         <v>5</v>
@@ -5616,7 +5604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" ht="17">
       <c r="D52" s="5" t="s">
         <v>5</v>
       </c>
@@ -5681,7 +5669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" ht="17">
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" ht="17">
       <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
@@ -5811,7 +5799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" ht="17">
       <c r="D55" s="5" t="s">
         <v>8</v>
       </c>
@@ -5876,7 +5864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" ht="17">
       <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
@@ -5941,7 +5929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" ht="17">
       <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
@@ -6006,35 +5994,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28">
       <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N60" s="10" t="s">
+      <c r="N60" s="8" t="s">
         <v>60</v>
       </c>
       <c r="O60">
@@ -6080,7 +6068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:28">
       <c r="D61">
         <v>1</v>
       </c>
@@ -6105,7 +6093,7 @@
       <c r="K61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="O61">
@@ -6151,7 +6139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" ht="17">
       <c r="D62">
         <v>1</v>
       </c>
@@ -6176,7 +6164,7 @@
       <c r="K62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="9" t="s">
         <v>62</v>
       </c>
       <c r="O62" s="2" t="s">
@@ -6222,7 +6210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" ht="17">
       <c r="D63">
         <v>2</v>
       </c>
@@ -6247,7 +6235,7 @@
       <c r="K63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="O63" s="2" t="s">
@@ -6293,7 +6281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" ht="17">
       <c r="D64">
         <v>2</v>
       </c>
@@ -6318,7 +6306,7 @@
       <c r="K64" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="O64" s="2" t="s">
@@ -6364,7 +6352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:28" ht="17">
       <c r="D65">
         <v>3</v>
       </c>
@@ -6389,7 +6377,7 @@
       <c r="K65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="9" t="s">
         <v>65</v>
       </c>
       <c r="O65" s="2" t="s">
@@ -6435,7 +6423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:28" ht="17">
       <c r="D66">
         <v>3</v>
       </c>
@@ -6460,7 +6448,7 @@
       <c r="K66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O66" s="2" t="s">
@@ -6506,7 +6494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:28" ht="17">
       <c r="D67">
         <v>3</v>
       </c>
@@ -6531,7 +6519,7 @@
       <c r="K67" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="9" t="s">
         <v>67</v>
       </c>
       <c r="O67" s="2" t="s">
@@ -6577,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:28" ht="17">
       <c r="D68">
         <v>4</v>
       </c>
@@ -6603,7 +6591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:28">
       <c r="D69">
         <v>4</v>
       </c>
@@ -6629,7 +6617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:28" ht="17">
       <c r="D70">
         <v>5</v>
       </c>
@@ -6655,7 +6643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:28">
       <c r="D71">
         <v>5</v>
       </c>
@@ -6681,7 +6669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="4:28" ht="17" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:28" ht="17">
       <c r="D72">
         <v>6</v>
       </c>
@@ -6707,7 +6695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:28">
       <c r="D73">
         <v>6</v>
       </c>
@@ -6733,7 +6721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:28">
       <c r="D74">
         <v>6</v>
       </c>
@@ -6761,18 +6749,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="T13:Z13"/>
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="L41:R41"/>
     <mergeCell ref="T41:Z41"/>
     <mergeCell ref="D50:J50"/>
     <mergeCell ref="L50:R50"/>
     <mergeCell ref="T50:Z50"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="T13:Z13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
